--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1FE460-B7FE-49BF-8B34-CC067AD560F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB5E15-5CA7-4E5C-993B-4E813A6D5E4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3432" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="2" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
   <sheets>
     <sheet name="CapacidadSanitaria1" sheetId="23" state="hidden" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="176">
   <si>
     <t>id</t>
   </si>
@@ -570,6 +570,21 @@
   <si>
     <t>Cantidad Aislamiento</t>
   </si>
+  <si>
+    <t>Region Mapa PBI</t>
+  </si>
+  <si>
+    <t>Ciudad de Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Gran Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Provincia Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Provincia de Santiago del Estero, Argentina</t>
+  </si>
 </sst>
 </file>
 
@@ -1029,7 +1044,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1179,6 +1194,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -4907,8 +4923,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4976,10 +4992,10 @@
         <v>5708369</v>
       </c>
       <c r="D2">
-        <v>-34.607568200000003</v>
-      </c>
-      <c r="E2">
-        <v>-58.437089399999998</v>
+        <v>-36.319937000000003</v>
+      </c>
+      <c r="E2" s="89">
+        <v>-59.810867000000002</v>
       </c>
       <c r="F2">
         <f>78781-F3</f>
@@ -5019,10 +5035,10 @@
         <v>9916715</v>
       </c>
       <c r="D3">
-        <v>-34.607568200000003</v>
+        <v>-34.479410999999999</v>
       </c>
       <c r="E3">
-        <v>-58.437089399999998</v>
+        <v>-58.617597000000004</v>
       </c>
       <c r="F3">
         <f>2681-202</f>
@@ -5146,10 +5162,10 @@
         <v>2890151</v>
       </c>
       <c r="D6">
-        <v>-34.607568200000003</v>
+        <v>-35.604559999999999</v>
       </c>
       <c r="E6">
-        <v>-58.437089399999998</v>
+        <v>-50.739153000000002</v>
       </c>
       <c r="F6">
         <v>202</v>
@@ -6029,10 +6045,10 @@
     <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
@@ -6040,10 +6056,11 @@
     <col min="1" max="1" width="28.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="12" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="14" style="12"/>
+    <col min="4" max="4" width="51.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="14" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4">
+    <row r="1" spans="1:4" ht="14.4">
       <c r="A1" s="18" t="s">
         <v>101</v>
       </c>
@@ -6053,8 +6070,11 @@
       <c r="C1" s="18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4">
+      <c r="D1" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4">
       <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
@@ -6064,8 +6084,12 @@
       <c r="C2" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4">
+      <c r="D2" s="12" t="str">
+        <f>+_xlfn.CONCAT("Provincia ",A2,", Argentina")</f>
+        <v>Provincia Tucumán, Argentina</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -6075,8 +6099,12 @@
       <c r="C3" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4">
+      <c r="D3" s="12" t="str">
+        <f>+_xlfn.CONCAT("Provincia ",A3,", Argentina")</f>
+        <v>Provincia Salta, Argentina</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4">
       <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
@@ -6086,8 +6114,12 @@
       <c r="C4" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.4">
+      <c r="D4" s="12" t="str">
+        <f t="shared" ref="D4:D26" si="0">+_xlfn.CONCAT("Provincia ",A4,", Argentina")</f>
+        <v>Provincia Misiones, Argentina</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
@@ -6097,8 +6129,12 @@
       <c r="C5" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4">
+      <c r="D5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Chaco, Argentina</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.4">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
@@ -6108,8 +6144,12 @@
       <c r="C6" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4">
+      <c r="D6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Corrientes, Argentina</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
@@ -6119,8 +6159,11 @@
       <c r="C7" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4">
+      <c r="D7" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -6130,8 +6173,12 @@
       <c r="C8" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.4">
+      <c r="D8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Jujuy, Argentina</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
@@ -6141,8 +6188,12 @@
       <c r="C9" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.4">
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Formosa, Argentina</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4">
       <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
@@ -6152,8 +6203,12 @@
       <c r="C10" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.4">
+      <c r="D10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Catamarca, Argentina</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4">
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
@@ -6163,8 +6218,12 @@
       <c r="C11" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.4">
+      <c r="D11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia La Rioja, Argentina</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -6174,8 +6233,12 @@
       <c r="C12" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.4">
+      <c r="D12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Mendoza, Argentina</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4">
       <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
@@ -6185,8 +6248,12 @@
       <c r="C13" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.4">
+      <c r="D13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia San Juan, Argentina</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4">
       <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
@@ -6196,8 +6263,12 @@
       <c r="C14" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4">
+      <c r="D14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia San Luis, Argentina</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4">
       <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
@@ -6207,8 +6278,12 @@
       <c r="C15" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.4">
+      <c r="D15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Río Negro, Argentina</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4">
       <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
@@ -6218,8 +6293,12 @@
       <c r="C16" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.4">
+      <c r="D16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Neuquén, Argentina</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4">
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
@@ -6229,8 +6308,12 @@
       <c r="C17" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.4">
+      <c r="D17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Chubut, Argentina</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.4">
       <c r="A18" s="17" t="s">
         <v>25</v>
       </c>
@@ -6240,9 +6323,13 @@
       <c r="C18" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4">
-      <c r="A19" s="17" t="s">
+      <c r="D18" s="12" t="str">
+        <f>+_xlfn.CONCAT("Provincia ",A18,", Argentina")</f>
+        <v>Provincia La Pampa, Argentina</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -6251,8 +6338,12 @@
       <c r="C19" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.4">
+      <c r="D19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Santa Cruz, Argentina</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4">
       <c r="A20" s="17" t="s">
         <v>27</v>
       </c>
@@ -6262,8 +6353,12 @@
       <c r="C20" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.4">
+      <c r="D20" s="12" t="str">
+        <f>+A20</f>
+        <v>Tierra del Fuego</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4">
       <c r="A21" s="17" t="s">
         <v>89</v>
       </c>
@@ -6273,8 +6368,12 @@
       <c r="C21" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.4">
+      <c r="D21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Córdoba, Argentina</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4">
       <c r="A22" s="17" t="s">
         <v>6</v>
       </c>
@@ -6284,8 +6383,12 @@
       <c r="C22" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.4">
+      <c r="D22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Santa Fe, Argentina</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4">
       <c r="A23" s="17" t="s">
         <v>104</v>
       </c>
@@ -6295,8 +6398,12 @@
       <c r="C23" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.4">
+      <c r="D23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Provincia Entre Ríos, Argentina</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.4">
       <c r="A24" s="17" t="s">
         <v>7</v>
       </c>
@@ -6306,8 +6413,11 @@
       <c r="C24" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.4">
+      <c r="D24" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.4">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -6317,8 +6427,11 @@
       <c r="C25" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="D25" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -6327,6 +6440,9 @@
       </c>
       <c r="C26" s="17" t="s">
         <v>72</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB5E15-5CA7-4E5C-993B-4E813A6D5E4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA269D-4E8B-4A38-B038-5B40A1138E3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
@@ -583,7 +583,7 @@
     <t>Provincia Buenos Aires, Argentina</t>
   </si>
   <si>
-    <t>Provincia de Santiago del Estero, Argentina</t>
+    <t xml:space="preserve"> Santiago del Estero, Argentina</t>
   </si>
 </sst>
 </file>
@@ -1189,12 +1189,12 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -4994,7 +4994,7 @@
       <c r="D2">
         <v>-36.319937000000003</v>
       </c>
-      <c r="E2" s="89">
+      <c r="E2" s="86">
         <v>-59.810867000000002</v>
       </c>
       <c r="F2">
@@ -6048,7 +6048,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
@@ -6115,7 +6115,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="12" t="str">
-        <f t="shared" ref="D4:D26" si="0">+_xlfn.CONCAT("Provincia ",A4,", Argentina")</f>
+        <f t="shared" ref="D4:D23" si="0">+_xlfn.CONCAT("Provincia ",A4,", Argentina")</f>
         <v>Provincia Misiones, Argentina</v>
       </c>
     </row>
@@ -69531,11 +69531,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">

--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA269D-4E8B-4A38-B038-5B40A1138E3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA469A37-776D-4D0A-85D2-89A8DA167845}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
@@ -583,7 +583,7 @@
     <t>Provincia Buenos Aires, Argentina</t>
   </si>
   <si>
-    <t xml:space="preserve"> Santiago del Estero, Argentina</t>
+    <t>Provincia de Santiago del Estero</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1044,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1195,6 +1195,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -6159,7 +6162,7 @@
       <c r="C7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="90" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6446,8 +6449,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" display="https://es.wikipedia.org/wiki/Provincia_de_Santiago_del_Estero" xr:uid="{1855972F-57B5-41F3-9C8A-7C1844AA8C5B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA469A37-776D-4D0A-85D2-89A8DA167845}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F9933-4855-4238-AD5E-1D5151E09B24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Provincias" sheetId="1" r:id="rId3"/>
     <sheet name="Diccionario" sheetId="15" r:id="rId4"/>
     <sheet name="CapacidadSanitariaCamas" sheetId="27" state="hidden" r:id="rId5"/>
-    <sheet name="Capacidad Sanitaria" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="Capacidad Sanitaria" sheetId="12" r:id="rId6"/>
     <sheet name="Perfil Etário" sheetId="2" r:id="rId7"/>
     <sheet name="matrizOD" sheetId="3" r:id="rId8"/>
     <sheet name="TiposdeMovimientos" sheetId="14" r:id="rId9"/>
@@ -577,13 +577,13 @@
     <t>Ciudad de Buenos Aires, Argentina</t>
   </si>
   <si>
-    <t>Gran Buenos Aires, Argentina</t>
-  </si>
-  <si>
     <t>Provincia Buenos Aires, Argentina</t>
   </si>
   <si>
     <t>Provincia de Santiago del Estero</t>
+  </si>
+  <si>
+    <t>Greater Buenos Aires</t>
   </si>
 </sst>
 </file>
@@ -1190,14 +1190,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -3012,7 +3012,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4351,7 +4351,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -4494,7 +4494,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -4600,7 +4600,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="66">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4927,7 +4927,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6162,8 +6162,8 @@
       <c r="C7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="90" t="s">
-        <v>175</v>
+      <c r="D7" s="87" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4">
@@ -6430,8 +6430,8 @@
       <c r="C25" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>173</v>
+      <c r="D25" s="35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -6445,15 +6445,16 @@
         <v>72</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://es.wikipedia.org/wiki/Provincia_de_Santiago_del_Estero" xr:uid="{1855972F-57B5-41F3-9C8A-7C1844AA8C5B}"/>
+    <hyperlink ref="D25" r:id="rId2" display="https://en.wikipedia.org/wiki/Greater_Buenos_Aires" xr:uid="{E18A1ECB-961A-4646-B9F2-86F1DE126A3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6859,7 +6860,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
@@ -69537,11 +69538,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">

--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F9933-4855-4238-AD5E-1D5151E09B24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F79E10-273A-4D4B-9B56-F3CF7F321A06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="10" activeTab="14" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
   <sheets>
     <sheet name="CapacidadSanitaria1" sheetId="23" state="hidden" r:id="rId1"/>
@@ -3508,8 +3508,8 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4208,7 +4208,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -4350,8 +4350,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -6050,7 +6050,7 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F79E10-273A-4D4B-9B56-F3CF7F321A06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C01CDD-022D-4D20-B307-0CDB385DA903}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="10" activeTab="14" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
   <sheets>
     <sheet name="CapacidadSanitaria1" sheetId="23" state="hidden" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Sur</t>
   </si>
   <si>
-    <t>PBA - Partidos del GBA</t>
-  </si>
-  <si>
     <t>Córdoba</t>
   </si>
   <si>
@@ -584,6 +581,15 @@
   </si>
   <si>
     <t>Greater Buenos Aires</t>
+  </si>
+  <si>
+    <t>CABA</t>
+  </si>
+  <si>
+    <t>Partidos del GBA</t>
+  </si>
+  <si>
+    <t>Provincia de BA</t>
   </si>
 </sst>
 </file>
@@ -1996,13 +2002,13 @@
         <v>72</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>1</v>
@@ -2011,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2097,7 +2103,7 @@
         <v>Centro</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10">
         <v>3308876</v>
@@ -2252,7 +2258,7 @@
         <v>Centro</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>1235994</v>
@@ -2614,7 +2620,7 @@
         <v>85</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>72</v>
@@ -2676,7 +2682,7 @@
         <v>85</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>72</v>
@@ -3034,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3135,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="84">
         <v>3308876</v>
@@ -3171,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="84">
         <v>1235994</v>
@@ -3529,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>40</v>
@@ -3538,13 +3544,13 @@
         <v>41</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>108</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>42</v>
@@ -3558,10 +3564,10 @@
         <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="22">
         <v>0.17899999999999999</v>
@@ -3571,7 +3577,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8">
@@ -3579,10 +3585,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="6">
         <v>0.5</v>
@@ -3600,7 +3606,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>48</v>
@@ -3618,13 +3624,13 @@
     </row>
     <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -3639,13 +3645,13 @@
     </row>
     <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -3663,10 +3669,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="22">
         <v>0.3</v>
@@ -3681,13 +3687,13 @@
     </row>
     <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -3705,10 +3711,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22">
@@ -3721,21 +3727,21 @@
         <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8">
       <c r="A10" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>123</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>53</v>
@@ -3750,21 +3756,21 @@
         <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8">
       <c r="A11" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>127</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28">
@@ -3777,21 +3783,21 @@
         <v>41</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8">
       <c r="A12" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28">
@@ -3804,21 +3810,21 @@
         <v>19</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22">
@@ -3827,7 +3833,7 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>54</v>
@@ -3835,13 +3841,13 @@
     </row>
     <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>132</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>133</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -3852,7 +3858,7 @@
         <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>54</v>
@@ -3860,13 +3866,13 @@
     </row>
     <row r="15" spans="1:9" ht="28.8">
       <c r="A15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>134</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>135</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31">
@@ -3879,21 +3885,21 @@
         <v>14</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="74" t="s">
         <v>136</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>137</v>
       </c>
       <c r="D16" s="75"/>
       <c r="E16" s="75">
@@ -3906,7 +3912,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="74" t="s">
         <v>54</v>
@@ -3929,7 +3935,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -3938,7 +3944,7 @@
     </row>
     <row r="19" spans="1:9" ht="18">
       <c r="A19" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -3951,10 +3957,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -3967,7 +3973,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="32"/>
       <c r="B21" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
@@ -4099,24 +4105,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>148</v>
       </c>
       <c r="C2" s="49">
         <v>64000000</v>
@@ -4129,10 +4135,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>149</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>150</v>
       </c>
       <c r="C3" s="53">
         <v>1920000</v>
@@ -4145,10 +4151,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="55">
         <f>C3/C2</f>
@@ -4161,10 +4167,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.4" thickBot="1">
       <c r="A5" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>153</v>
       </c>
       <c r="C5" s="59">
         <f>C4/C7</f>
@@ -4178,7 +4184,7 @@
     <row r="6" spans="1:7" ht="15" thickBot="1"/>
     <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47">
@@ -4226,7 +4232,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4350,7 +4356,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4369,7 +4375,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4642,7 +4648,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4744,7 +4750,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4854,15 +4860,15 @@
         <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4907,7 +4913,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>193739</v>
@@ -4926,8 +4932,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5015,7 +5021,7 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="64">
         <v>31049</v>
@@ -5075,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>3308876</v>
@@ -5184,7 +5190,7 @@
         <v>500</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="64">
         <v>15720</v>
@@ -5285,7 +5291,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>1235994</v>
@@ -5436,7 +5442,7 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="64">
         <v>3176</v>
@@ -6051,7 +6057,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
@@ -6065,16 +6071,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.4">
       <c r="A1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4">
@@ -6082,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>86</v>
@@ -6097,7 +6103,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>86</v>
@@ -6112,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>85</v>
@@ -6127,7 +6133,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>85</v>
@@ -6142,7 +6148,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>85</v>
@@ -6157,13 +6163,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4">
@@ -6171,7 +6177,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>86</v>
@@ -6186,7 +6192,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>85</v>
@@ -6201,7 +6207,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>86</v>
@@ -6216,7 +6222,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>86</v>
@@ -6276,7 +6282,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>87</v>
@@ -6291,7 +6297,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>87</v>
@@ -6306,7 +6312,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>87</v>
@@ -6321,7 +6327,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>87</v>
@@ -6336,7 +6342,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>87</v>
@@ -6351,7 +6357,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>87</v>
@@ -6363,10 +6369,10 @@
     </row>
     <row r="21" spans="1:4" ht="14.4">
       <c r="A21" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>72</v>
@@ -6381,7 +6387,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>72</v>
@@ -6393,10 +6399,10 @@
     </row>
     <row r="23" spans="1:4" ht="14.4">
       <c r="A23" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>72</v>
@@ -6411,13 +6417,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4">
@@ -6425,13 +6431,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -6439,13 +6445,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6475,13 +6481,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>169</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>170</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6517,7 +6523,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="64">
         <v>710</v>
@@ -6587,7 +6593,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="64">
         <v>265</v>
@@ -69539,25 +69545,25 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="20">
         <v>53.7</v>
@@ -69568,7 +69574,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="20">
         <v>41.2</v>
@@ -69579,7 +69585,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="20">
         <v>2.2000000000000002</v>
@@ -69590,7 +69596,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="20">
         <v>2.9</v>

--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C01CDD-022D-4D20-B307-0CDB385DA903}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEA907-9530-475C-8D43-045AA39A5856}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
   <sheets>
     <sheet name="CapacidadSanitaria1" sheetId="23" state="hidden" r:id="rId1"/>
@@ -4932,8 +4932,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5021,7 +5021,7 @@
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="64">
         <v>31049</v>
@@ -5064,7 +5064,7 @@
         <v>1000</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="64">
         <v>53940</v>
@@ -5190,7 +5190,7 @@
         <v>500</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="64">
         <v>15720</v>
@@ -5442,7 +5442,7 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="64">
         <v>3176</v>
@@ -6056,8 +6056,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>

--- a/Input/Input_Simulador.xlsx
+++ b/Input/Input_Simulador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.brottier\Documents\COVID 19\COVID-19-Simulation-Argentina\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEA907-9530-475C-8D43-045AA39A5856}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E57A7-03ED-453A-93FF-1CB2266A6875}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{55AC4C4C-7526-4060-9BB2-10E89010456B}"/>
   </bookViews>
   <sheets>
     <sheet name="CapacidadSanitaria1" sheetId="23" state="hidden" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -1050,7 +1050,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1086,7 +1086,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1196,9 +1195,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2046,7 +2042,7 @@
       <c r="K8" s="3">
         <v>5708369</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="78">
         <f t="shared" ref="L8:L32" si="1">K8/SUMIF($I$8:$I$32,I8,$K$8:$K$32)</f>
         <v>0.21742322748106793</v>
       </c>
@@ -2077,7 +2073,7 @@
       <c r="K9" s="3">
         <v>9916715</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="78">
         <f t="shared" si="1"/>
         <v>0.37771282503109355</v>
       </c>
@@ -2108,7 +2104,7 @@
       <c r="K10">
         <v>3308876</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="78">
         <f t="shared" si="1"/>
         <v>0.12603013211911249</v>
       </c>
@@ -2139,7 +2135,7 @@
       <c r="K11">
         <v>3194537</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="78">
         <f t="shared" si="1"/>
         <v>0.12167513082067545</v>
       </c>
@@ -2170,7 +2166,7 @@
       <c r="K12">
         <v>2890151</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="78">
         <f t="shared" si="1"/>
         <v>0.11008152386918854</v>
       </c>
@@ -2201,7 +2197,7 @@
       <c r="K13">
         <v>1738929</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="78">
         <f t="shared" si="1"/>
         <v>0.60965980365277916</v>
       </c>
@@ -2232,7 +2228,7 @@
       <c r="K14">
         <v>1448188</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="78">
         <f t="shared" si="1"/>
         <v>0.29486184421099271</v>
       </c>
@@ -2263,7 +2259,7 @@
       <c r="K15">
         <v>1235994</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="78">
         <f t="shared" si="1"/>
         <v>4.707716067886205E-2</v>
       </c>
@@ -2294,7 +2290,7 @@
       <c r="K16">
         <v>1214441</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="78">
         <f t="shared" si="1"/>
         <v>0.24726921708054628</v>
       </c>
@@ -2325,7 +2321,7 @@
       <c r="K17">
         <v>1101593</v>
       </c>
-      <c r="L17" s="79">
+      <c r="L17" s="78">
         <f t="shared" si="1"/>
         <v>0.29937773279715318</v>
       </c>
@@ -2356,7 +2352,7 @@
       <c r="K18">
         <v>1055259</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="78">
         <f t="shared" si="1"/>
         <v>0.28678563401709256</v>
       </c>
@@ -2387,7 +2383,7 @@
       <c r="K19">
         <v>992595</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="78">
         <f t="shared" si="1"/>
         <v>0.26975556370255643</v>
       </c>
@@ -2418,7 +2414,7 @@
       <c r="K20">
         <v>874006</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="78">
         <f t="shared" si="1"/>
         <v>0.17795411991500612</v>
       </c>
@@ -2449,7 +2445,7 @@
       <c r="K21">
         <v>681055</v>
       </c>
-      <c r="L21" s="79">
+      <c r="L21" s="78">
         <f t="shared" si="1"/>
         <v>0.23877447416009709</v>
       </c>
@@ -2480,7 +2476,7 @@
       <c r="K22">
         <v>673307</v>
       </c>
-      <c r="L22" s="79">
+      <c r="L22" s="78">
         <f t="shared" si="1"/>
         <v>0.13709031129947966</v>
       </c>
@@ -2511,7 +2507,7 @@
       <c r="K23">
         <v>638645</v>
       </c>
-      <c r="L23" s="79">
+      <c r="L23" s="78">
         <f t="shared" si="1"/>
         <v>0.26399681870285252</v>
       </c>
@@ -2542,7 +2538,7 @@
       <c r="K24">
         <v>551266</v>
       </c>
-      <c r="L24" s="79">
+      <c r="L24" s="78">
         <f t="shared" si="1"/>
         <v>0.22787694299500771</v>
       </c>
@@ -2573,7 +2569,7 @@
       <c r="K25">
         <v>530162</v>
       </c>
-      <c r="L25" s="79">
+      <c r="L25" s="78">
         <f t="shared" si="1"/>
         <v>0.14408106948319779</v>
       </c>
@@ -2604,7 +2600,7 @@
       <c r="K26">
         <v>509108</v>
       </c>
-      <c r="L26" s="79">
+      <c r="L26" s="78">
         <f t="shared" si="1"/>
         <v>0.21045008161994824</v>
       </c>
@@ -2635,7 +2631,7 @@
       <c r="K27">
         <v>432310</v>
       </c>
-      <c r="L27" s="79">
+      <c r="L27" s="78">
         <f t="shared" si="1"/>
         <v>0.15156572218712377</v>
       </c>
@@ -2666,7 +2662,7 @@
       <c r="K28">
         <v>367828</v>
       </c>
-      <c r="L28" s="79">
+      <c r="L28" s="78">
         <f t="shared" si="1"/>
         <v>7.4892515635014936E-2</v>
       </c>
@@ -2697,7 +2693,7 @@
       <c r="K29">
         <v>333642</v>
       </c>
-      <c r="L29" s="79">
+      <c r="L29" s="78">
         <f t="shared" si="1"/>
         <v>6.7931991858960317E-2</v>
       </c>
@@ -2728,7 +2724,7 @@
       <c r="K30">
         <v>318951</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="78">
         <f t="shared" si="1"/>
         <v>0.13184484231786597</v>
       </c>
@@ -2759,7 +2755,7 @@
       <c r="K31">
         <v>273964</v>
       </c>
-      <c r="L31" s="79">
+      <c r="L31" s="78">
         <f t="shared" si="1"/>
         <v>0.11324855661456411</v>
       </c>
@@ -2790,7 +2786,7 @@
       <c r="K32">
         <v>127205</v>
       </c>
-      <c r="L32" s="79">
+      <c r="L32" s="78">
         <f t="shared" si="1"/>
         <v>5.2582757749761379E-2</v>
       </c>
@@ -3036,7 +3032,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3053,13 +3049,13 @@
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="82">
         <v>9916715</v>
       </c>
       <c r="D2">
         <v>235</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="84">
         <f>D2/C2</f>
         <v>2.3697363491841803E-5</v>
       </c>
@@ -3071,13 +3067,13 @@
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="83">
         <v>367828</v>
       </c>
       <c r="D3">
         <v>8119</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="84">
         <f t="shared" ref="E3:E26" si="0">D3/C3</f>
         <v>2.2072816642561197E-2</v>
       </c>
@@ -3086,16 +3082,16 @@
       <c r="A4">
         <v>11</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="83">
         <v>1055259</v>
       </c>
       <c r="D4">
         <v>14145</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="84">
         <f t="shared" si="0"/>
         <v>1.3404292216413222E-2</v>
       </c>
@@ -3107,13 +3103,13 @@
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="83">
         <v>509108</v>
       </c>
       <c r="D5">
         <v>5056</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="84">
         <f t="shared" si="0"/>
         <v>9.9310951703764239E-3</v>
       </c>
@@ -3125,13 +3121,13 @@
       <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="83">
         <v>2890151</v>
       </c>
       <c r="D6">
         <v>911</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="84">
         <f t="shared" si="0"/>
         <v>3.1520844412627578E-4</v>
       </c>
@@ -3140,16 +3136,16 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="83">
         <v>3308876</v>
       </c>
       <c r="D7">
         <v>8162</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="84">
         <f t="shared" si="0"/>
         <v>2.4666986614185604E-3</v>
       </c>
@@ -3158,16 +3154,16 @@
       <c r="A8">
         <v>12</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="83">
         <v>992595</v>
       </c>
       <c r="D8">
         <v>14145</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="84">
         <f t="shared" si="0"/>
         <v>1.4250525138651715E-2</v>
       </c>
@@ -3179,13 +3175,13 @@
       <c r="B9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="83">
         <v>1235994</v>
       </c>
       <c r="D9">
         <v>14145</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="84">
         <f t="shared" si="0"/>
         <v>1.1444230311797631E-2</v>
       </c>
@@ -3197,13 +3193,13 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>530162</v>
       </c>
       <c r="D10">
         <v>14144</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="84">
         <f t="shared" si="0"/>
         <v>2.667863785031745E-2</v>
       </c>
@@ -3215,13 +3211,13 @@
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="82">
         <v>5708369</v>
       </c>
       <c r="D11">
         <v>37502</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="84">
         <f t="shared" si="0"/>
         <v>6.5696523823179616E-3</v>
       </c>
@@ -3233,13 +3229,13 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="83">
         <v>673307</v>
       </c>
       <c r="D12">
         <v>8118</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="84">
         <f t="shared" si="0"/>
         <v>1.2056907176072728E-2</v>
       </c>
@@ -3251,13 +3247,13 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="83">
         <v>318951</v>
       </c>
       <c r="D13">
         <v>5055</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="84">
         <f t="shared" si="0"/>
         <v>1.5848829444021183E-2</v>
       </c>
@@ -3269,13 +3265,13 @@
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="83">
         <v>333642</v>
       </c>
       <c r="D14">
         <v>8120</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="84">
         <f t="shared" si="0"/>
         <v>2.433746350879086E-2</v>
       </c>
@@ -3287,13 +3283,13 @@
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="83">
         <v>1738929</v>
       </c>
       <c r="D15">
         <v>2956</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="84">
         <f t="shared" si="0"/>
         <v>1.6998968905573488E-3</v>
       </c>
@@ -3305,13 +3301,13 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="83">
         <v>1101593</v>
       </c>
       <c r="D16">
         <v>14146</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="84">
         <f t="shared" si="0"/>
         <v>1.2841403313201881E-2</v>
       </c>
@@ -3323,13 +3319,13 @@
       <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="83">
         <v>551266</v>
       </c>
       <c r="D17">
         <v>5056</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="84">
         <f t="shared" si="0"/>
         <v>9.1716158805368007E-3</v>
       </c>
@@ -3341,13 +3337,13 @@
       <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="83">
         <v>638645</v>
       </c>
       <c r="D18">
         <v>5057</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="84">
         <f t="shared" si="0"/>
         <v>7.9183270831212956E-3</v>
       </c>
@@ -3359,13 +3355,13 @@
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="83">
         <v>1214441</v>
       </c>
       <c r="D19">
         <v>8119</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="84">
         <f t="shared" si="0"/>
         <v>6.6853803519479329E-3</v>
       </c>
@@ -3377,13 +3373,13 @@
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="83">
         <v>681055</v>
       </c>
       <c r="D20">
         <v>2957</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="84">
         <f t="shared" si="0"/>
         <v>4.3417932472414123E-3</v>
       </c>
@@ -3395,13 +3391,13 @@
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="83">
         <v>432310</v>
       </c>
       <c r="D21">
         <v>2957</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="84">
         <f t="shared" si="0"/>
         <v>6.8399990747380355E-3</v>
       </c>
@@ -3413,13 +3409,13 @@
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="83">
         <v>273964</v>
       </c>
       <c r="D22">
         <v>5055</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="84">
         <f t="shared" si="0"/>
         <v>1.8451329371742271E-2</v>
       </c>
@@ -3431,13 +3427,13 @@
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>3194537</v>
       </c>
       <c r="D23">
         <v>14145</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="84">
         <f t="shared" si="0"/>
         <v>4.4278717072301866E-3</v>
       </c>
@@ -3449,13 +3445,13 @@
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="83">
         <v>874006</v>
       </c>
       <c r="D24">
         <v>8119</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="84">
         <f t="shared" si="0"/>
         <v>9.2894099125177629E-3</v>
       </c>
@@ -3467,13 +3463,13 @@
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="83">
         <v>127205</v>
       </c>
       <c r="D25">
         <v>5056</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="84">
         <f t="shared" si="0"/>
         <v>3.9746865296175465E-2</v>
       </c>
@@ -3482,16 +3478,16 @@
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="83">
         <v>1448188</v>
       </c>
       <c r="D26">
         <v>8120</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <f t="shared" si="0"/>
         <v>5.6070068250807219E-3</v>
       </c>
@@ -3531,31 +3527,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3566,15 +3562,15 @@
       <c r="B2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="4"/>
       <c r="I2" s="7" t="s">
         <v>110</v>
@@ -3587,7 +3583,7 @@
       <c r="B3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="6">
@@ -3597,7 +3593,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3608,17 +3604,17 @@
       <c r="B4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>0.25</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="39" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3629,13 +3625,13 @@
       <c r="B5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="4" t="s">
         <v>55</v>
       </c>
@@ -3650,13 +3646,13 @@
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="4" t="s">
         <v>55</v>
       </c>
@@ -3671,15 +3667,15 @@
       <c r="B7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>0.3</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
         <v>45</v>
@@ -3692,17 +3688,17 @@
       <c r="B8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3713,17 +3709,17 @@
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
         <v>5</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>1</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -3734,25 +3730,25 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>14</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>6</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -3763,56 +3759,56 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27">
         <v>20</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>10</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>41</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28">
+      <c r="D12" s="26"/>
+      <c r="E12" s="27">
         <v>11.5</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>6</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>19</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3823,15 +3819,15 @@
       <c r="B13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
         <v>14</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="4" t="s">
         <v>119</v>
       </c>
@@ -3846,15 +3842,15 @@
       <c r="B14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
         <v>21</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -3865,95 +3861,95 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30">
         <v>10</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <v>7</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <v>14</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="72" t="s">
         <v>135</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75">
+      <c r="D16" s="74"/>
+      <c r="E16" s="74">
         <v>5</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="74">
         <v>3</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="74">
         <v>9</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="73" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
@@ -3962,26 +3958,26 @@
       <c r="B20" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9">
       <c r="F22"/>
@@ -4035,7 +4031,7 @@
       <c r="A2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="67">
         <v>1.8E-3</v>
       </c>
     </row>
@@ -4043,7 +4039,7 @@
       <c r="A3" s="14">
         <v>44123</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="67">
         <v>1.17E-2</v>
       </c>
     </row>
@@ -4051,7 +4047,7 @@
       <c r="A4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="67">
         <v>6.8099999999999994E-2</v>
       </c>
     </row>
@@ -4059,7 +4055,7 @@
       <c r="A5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="67">
         <v>0.27179999999999999</v>
       </c>
     </row>
@@ -4067,7 +4063,7 @@
       <c r="A6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="67">
         <v>0.32050000000000001</v>
       </c>
     </row>
@@ -4076,7 +4072,7 @@
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="67">
         <v>0.3261</v>
       </c>
     </row>
@@ -4104,101 +4100,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>64000000</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <v>16000000</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="52">
         <v>1920000</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="53">
         <v>80000</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <f>C3/C2</f>
         <v>0.03</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <f>D3/D2</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.4" thickBot="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="58">
         <f>C4/C7</f>
         <v>1.2</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <f>D4/C7</f>
         <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1"/>
     <row r="7" spans="1:7" ht="15" thickBot="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46">
         <f>(C3+D3)/(C2+D2)</f>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4228,117 +4224,117 @@
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="63">
+      <c r="A2" s="62">
         <v>0</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="68">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="69">
         <f>B2*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="63">
+      <c r="A3" s="62">
         <v>10</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="68">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="69">
         <f>B3*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>1.1999999999999999E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="63">
+      <c r="A4" s="62">
         <v>20</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="68">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="69">
         <f>B4*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>5.9999999999999988E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="63">
+      <c r="A5" s="62">
         <v>30</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="68">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="69">
         <f>B5*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>1.5999999999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="63">
+      <c r="A6" s="62">
         <v>40</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="68">
         <v>1.5E-3</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="69">
         <f>B6*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="63">
+      <c r="A7" s="62">
         <v>50</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="68">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="69">
         <f>B7*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="63">
+      <c r="A8" s="62">
         <v>60</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="68">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="69">
         <f>B8*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>4.3999999999999994E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="63">
+      <c r="A9" s="62">
         <v>70</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="68">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="69">
         <f>B9*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>1.0199999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="63">
+      <c r="A10" s="62">
         <v>80</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="68">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="69">
         <f>B10*FactorEnfermadaSobreLetalidad!$D$5</f>
         <v>1.8599999999999998E-2</v>
       </c>
@@ -4374,114 +4370,114 @@
       <c r="B1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="63">
+      <c r="A2" s="62">
         <v>0</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="68">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="69">
         <f>B2*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>2.4000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="63">
+      <c r="A3" s="62">
         <v>10</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="68">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="69">
         <f>B3*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>7.2000000000000002E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="63">
+      <c r="A4" s="62">
         <v>20</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="68">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="69">
         <f>B4*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>3.5999999999999997E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="63">
+      <c r="A5" s="62">
         <v>30</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="68">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="69">
         <f>B5*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="63">
+      <c r="A6" s="62">
         <v>40</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="68">
         <v>1.5E-3</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="69">
         <f>B6*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>1.8E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="63">
+      <c r="A7" s="62">
         <v>50</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="68">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="69">
         <f>B7*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="63">
+      <c r="A8" s="62">
         <v>60</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="68">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="69">
         <f>B8*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>2.6399999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="63">
+      <c r="A9" s="62">
         <v>70</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="68">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="69">
         <f>B9*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="63">
+      <c r="A10" s="62">
         <v>80</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="68">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="69">
         <f>B10*FactorEnfermadaSobreLetalidad!$C$5</f>
         <v>0.11159999999999999</v>
       </c>
@@ -4511,112 +4507,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="65">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="64">
         <v>0</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="65">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="65">
+      <c r="A3" s="64">
         <v>1</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <v>1</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="65">
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="65">
+      <c r="A4" s="64">
         <v>2</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <v>0</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="65">
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="65">
+      <c r="A5" s="64">
         <v>2</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="65">
         <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <v>2</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="65">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="65">
+      <c r="A7" s="64">
         <v>3</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <v>0</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="65">
         <v>1.7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <v>3</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>1</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="65">
+      <c r="A9" s="64">
         <v>3</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <v>2</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="65">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="65">
+      <c r="A10" s="64">
         <v>3</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <v>3</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="65">
         <v>0.2</v>
       </c>
     </row>
@@ -4644,82 +4640,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65">
+      <c r="A2" s="64">
         <v>0</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="66">
         <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65">
+      <c r="A3" s="64">
         <v>10</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="66">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="65">
+      <c r="A4" s="64">
         <v>20</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65">
+      <c r="A5" s="64">
         <v>30</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="66">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <v>40</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="66">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65">
+      <c r="A7" s="64">
         <v>50</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="66">
         <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <v>60</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="66">
         <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="65">
+      <c r="A9" s="64">
         <v>70</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="66">
         <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="65">
+      <c r="A10" s="64">
         <v>80</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="66">
         <v>0.27300000000000002</v>
       </c>
     </row>
@@ -4746,82 +4742,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65">
+      <c r="A2" s="64">
         <v>0</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="66">
         <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65">
+      <c r="A3" s="64">
         <v>10</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="66">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="65">
+      <c r="A4" s="64">
         <v>20</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65">
+      <c r="A5" s="64">
         <v>30</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="66">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <v>40</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="66">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65">
+      <c r="A7" s="64">
         <v>50</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="66">
         <v>0.122</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <v>60</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="66">
         <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="65">
+      <c r="A9" s="64">
         <v>70</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="66">
         <v>0.432</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="65">
+      <c r="A10" s="64">
         <v>80</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="66">
         <v>0.70899999999999996</v>
       </c>
     </row>
@@ -4856,7 +4852,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>69</v>
       </c>
       <c r="B1" t="s">
@@ -4864,7 +4860,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>164</v>
       </c>
       <c r="B3" t="s">
@@ -4932,8 +4928,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4986,9 +4982,7 @@
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
@@ -5003,7 +4997,7 @@
       <c r="D2">
         <v>-36.319937000000003</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="85">
         <v>-59.810867000000002</v>
       </c>
       <c r="F2">
@@ -5023,15 +5017,13 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="63">
         <v>31049</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="63">
         <v>1226</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
@@ -5066,15 +5058,13 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="63">
         <v>53940</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="63">
         <v>2130</v>
       </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
@@ -5108,14 +5098,11 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="63">
         <v>17998</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="63">
         <v>710</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5150,15 +5137,13 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="63">
         <v>17376</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="63">
         <v>686</v>
       </c>
-      <c r="M5" s="1">
-        <v>4</v>
-      </c>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
@@ -5192,15 +5177,13 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="63">
         <v>15720</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="63">
         <v>620</v>
       </c>
-      <c r="M6" s="1">
-        <v>5</v>
-      </c>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
@@ -5234,14 +5217,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="63">
         <v>5557</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="63">
         <v>228</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5276,15 +5256,13 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="63">
         <v>4494</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="63">
         <v>334</v>
       </c>
-      <c r="M8" s="1">
-        <v>7</v>
-      </c>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
@@ -5318,15 +5296,13 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="63">
         <v>6723</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="63">
         <v>265</v>
       </c>
-      <c r="M9" s="1">
-        <v>8</v>
-      </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
@@ -5360,14 +5336,11 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="63">
         <v>3769</v>
       </c>
-      <c r="L10" s="64">
+      <c r="L10" s="63">
         <v>280</v>
-      </c>
-      <c r="M10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5402,15 +5375,13 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="63">
         <v>3315</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="63">
         <v>215</v>
       </c>
-      <c r="M11" s="1">
-        <v>10</v>
-      </c>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
@@ -5444,15 +5415,13 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="63">
         <v>3176</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="63">
         <v>206</v>
       </c>
-      <c r="M12" s="1">
-        <v>11</v>
-      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
@@ -5486,14 +5455,11 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="63">
         <v>2987</v>
       </c>
-      <c r="L13" s="64">
+      <c r="L13" s="63">
         <v>194</v>
-      </c>
-      <c r="M13">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5528,15 +5494,13 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="63">
         <v>2712</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="63">
         <v>201</v>
       </c>
-      <c r="M14" s="1">
-        <v>13</v>
-      </c>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
@@ -5570,15 +5534,13 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="63">
         <v>2176</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L15" s="63">
         <v>89</v>
       </c>
-      <c r="M15" s="1">
-        <v>14</v>
-      </c>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
@@ -5612,14 +5574,11 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="63">
         <v>2089</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="63">
         <v>155</v>
-      </c>
-      <c r="M16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -5654,15 +5613,13 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="63">
         <v>1901</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L17" s="63">
         <v>111</v>
       </c>
-      <c r="M17" s="1">
-        <v>16</v>
-      </c>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
@@ -5696,15 +5653,13 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="63">
         <v>1641</v>
       </c>
-      <c r="L18" s="64">
+      <c r="L18" s="63">
         <v>96</v>
       </c>
-      <c r="M18" s="1">
-        <v>17</v>
-      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
@@ -5738,14 +5693,11 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="63">
         <v>1595</v>
       </c>
-      <c r="L19" s="64">
+      <c r="L19" s="63">
         <v>103</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -5780,15 +5732,13 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="63">
         <v>1515</v>
       </c>
-      <c r="L20" s="64">
+      <c r="L20" s="63">
         <v>89</v>
       </c>
-      <c r="M20" s="1">
-        <v>19</v>
-      </c>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
@@ -5822,15 +5772,13 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" s="64">
+      <c r="K21" s="63">
         <v>1381</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L21" s="63">
         <v>56</v>
       </c>
-      <c r="M21" s="1">
-        <v>20</v>
-      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
@@ -5864,14 +5812,11 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="63">
         <v>1141</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="63">
         <v>84</v>
-      </c>
-      <c r="M22">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -5906,15 +5851,13 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="63">
         <v>1035</v>
       </c>
-      <c r="L23" s="64">
+      <c r="L23" s="63">
         <v>77</v>
       </c>
-      <c r="M23" s="1">
-        <v>22</v>
-      </c>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
@@ -5948,15 +5891,13 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="63">
         <v>949</v>
       </c>
-      <c r="L24" s="64">
+      <c r="L24" s="63">
         <v>55</v>
       </c>
-      <c r="M24" s="1">
-        <v>23</v>
-      </c>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
@@ -5990,14 +5931,11 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="63">
         <v>815</v>
       </c>
-      <c r="L25" s="64">
+      <c r="L25" s="63">
         <v>48</v>
-      </c>
-      <c r="M25">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6032,15 +5970,13 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="63">
         <v>378</v>
       </c>
-      <c r="L26" s="64">
+      <c r="L26" s="63">
         <v>22</v>
       </c>
-      <c r="M26" s="1">
-        <v>25</v>
-      </c>
+      <c r="M26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6056,8 +5992,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
@@ -6073,13 +6009,13 @@
       <c r="A1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6093,7 +6029,7 @@
       <c r="C2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="17" t="str">
         <f>+_xlfn.CONCAT("Provincia ",A2,", Argentina")</f>
         <v>Provincia Tucumán, Argentina</v>
       </c>
@@ -6108,7 +6044,7 @@
       <c r="C3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="17" t="str">
         <f>+_xlfn.CONCAT("Provincia ",A3,", Argentina")</f>
         <v>Provincia Salta, Argentina</v>
       </c>
@@ -6123,7 +6059,7 @@
       <c r="C4" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="17" t="str">
         <f t="shared" ref="D4:D23" si="0">+_xlfn.CONCAT("Provincia ",A4,", Argentina")</f>
         <v>Provincia Misiones, Argentina</v>
       </c>
@@ -6138,7 +6074,7 @@
       <c r="C5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Chaco, Argentina</v>
       </c>
@@ -6153,7 +6089,7 @@
       <c r="C6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Corrientes, Argentina</v>
       </c>
@@ -6168,7 +6104,7 @@
       <c r="C7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="17" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6182,7 +6118,7 @@
       <c r="C8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Jujuy, Argentina</v>
       </c>
@@ -6197,7 +6133,7 @@
       <c r="C9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Formosa, Argentina</v>
       </c>
@@ -6212,7 +6148,7 @@
       <c r="C10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Catamarca, Argentina</v>
       </c>
@@ -6227,7 +6163,7 @@
       <c r="C11" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia La Rioja, Argentina</v>
       </c>
@@ -6242,7 +6178,7 @@
       <c r="C12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Mendoza, Argentina</v>
       </c>
@@ -6257,7 +6193,7 @@
       <c r="C13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia San Juan, Argentina</v>
       </c>
@@ -6272,7 +6208,7 @@
       <c r="C14" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia San Luis, Argentina</v>
       </c>
@@ -6287,7 +6223,7 @@
       <c r="C15" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Río Negro, Argentina</v>
       </c>
@@ -6302,7 +6238,7 @@
       <c r="C16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="12" t="str">
+      <c r="D16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Neuquén, Argentina</v>
       </c>
@@ -6317,7 +6253,7 @@
       <c r="C17" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="12" t="str">
+      <c r="D17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Chubut, Argentina</v>
       </c>
@@ -6332,7 +6268,7 @@
       <c r="C18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="12" t="str">
+      <c r="D18" s="17" t="str">
         <f>+_xlfn.CONCAT("Provincia ",A18,", Argentina")</f>
         <v>Provincia La Pampa, Argentina</v>
       </c>
@@ -6347,7 +6283,7 @@
       <c r="C19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="12" t="str">
+      <c r="D19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Santa Cruz, Argentina</v>
       </c>
@@ -6362,7 +6298,7 @@
       <c r="C20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="12" t="str">
+      <c r="D20" s="17" t="str">
         <f>+A20</f>
         <v>Tierra del Fuego</v>
       </c>
@@ -6377,7 +6313,7 @@
       <c r="C21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="12" t="str">
+      <c r="D21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Córdoba, Argentina</v>
       </c>
@@ -6392,7 +6328,7 @@
       <c r="C22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="12" t="str">
+      <c r="D22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Santa Fe, Argentina</v>
       </c>
@@ -6407,7 +6343,7 @@
       <c r="C23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="12" t="str">
+      <c r="D23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Provincia Entre Ríos, Argentina</v>
       </c>
@@ -6422,7 +6358,7 @@
       <c r="C24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6436,7 +6372,7 @@
       <c r="C25" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="17" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6450,7 +6386,7 @@
       <c r="C26" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6480,13 +6416,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="76" t="s">
         <v>169</v>
       </c>
       <c r="D1" t="s">
@@ -6494,13 +6430,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="63">
         <v>1226</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="63">
         <v>31049</v>
       </c>
       <c r="D2">
@@ -6508,13 +6444,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="63">
         <v>2130</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <v>53940</v>
       </c>
       <c r="D3">
@@ -6522,13 +6458,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="63">
         <v>710</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <v>17998</v>
       </c>
       <c r="D4">
@@ -6536,13 +6472,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="63">
         <v>686</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="63">
         <v>17376</v>
       </c>
       <c r="D5">
@@ -6550,13 +6486,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="63">
         <v>620</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <v>15720</v>
       </c>
       <c r="D6">
@@ -6564,13 +6500,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>228</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>5557</v>
       </c>
       <c r="D7">
@@ -6578,13 +6514,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="63">
         <v>334</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <v>4494</v>
       </c>
       <c r="D8">
@@ -6592,13 +6528,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="63">
         <v>265</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <v>6723</v>
       </c>
       <c r="D9">
@@ -6606,13 +6542,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="63">
         <v>280</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>3769</v>
       </c>
       <c r="D10">
@@ -6620,13 +6556,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="63">
         <v>215</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <v>3315</v>
       </c>
       <c r="D11">
@@ -6634,13 +6570,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="63">
         <v>206</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <v>3176</v>
       </c>
       <c r="D12">
@@ -6648,13 +6584,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="63">
         <v>194</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="63">
         <v>2987</v>
       </c>
       <c r="D13">
@@ -6662,13 +6598,13 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="63">
         <v>201</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="63">
         <v>2712</v>
       </c>
       <c r="D14">
@@ -6676,13 +6612,13 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="63">
         <v>89</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="63">
         <v>2176</v>
       </c>
       <c r="D15">
@@ -6690,13 +6626,13 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="63">
         <v>155</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <v>2089</v>
       </c>
       <c r="D16">
@@ -6704,13 +6640,13 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="63">
         <v>111</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="63">
         <v>1901</v>
       </c>
       <c r="D17">
@@ -6718,13 +6654,13 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="63">
         <v>96</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="63">
         <v>1641</v>
       </c>
       <c r="D18">
@@ -6732,13 +6668,13 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="63">
         <v>103</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>1595</v>
       </c>
       <c r="D19">
@@ -6746,13 +6682,13 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="63">
         <v>89</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="63">
         <v>1515</v>
       </c>
       <c r="D20">
@@ -6760,13 +6696,13 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="63">
         <v>56</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="63">
         <v>1381</v>
       </c>
       <c r="D21">
@@ -6774,13 +6710,13 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="63">
         <v>84</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="63">
         <v>1141</v>
       </c>
       <c r="D22">
@@ -6788,13 +6724,13 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="63">
         <v>77</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="63">
         <v>1035</v>
       </c>
       <c r="D23">
@@ -6802,13 +6738,13 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="63">
         <v>55</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="63">
         <v>949</v>
       </c>
       <c r="D24">
@@ -6816,13 +6752,13 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="63">
         <v>48</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="63">
         <v>815</v>
       </c>
       <c r="D25">
@@ -6830,13 +6766,13 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="63">
         <v>22</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="63">
         <v>378</v>
       </c>
       <c r="D26">
@@ -69544,11 +69480,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
@@ -69565,7 +69501,7 @@
       <c r="A3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>53.7</v>
       </c>
       <c r="C3" s="17">
@@ -69576,7 +69512,7 @@
       <c r="A4" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>41.2</v>
       </c>
       <c r="C4" s="17">
@@ -69587,7 +69523,7 @@
       <c r="A5" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="17">
@@ -69598,7 +69534,7 @@
       <c r="A6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>2.9</v>
       </c>
       <c r="C6" s="17">
